--- a/InputData/land/CSpULApYbP/CO2 Sequestered per Unit Land Area per Year by Pol.xlsx
+++ b/InputData/land/CSpULApYbP/CO2 Sequestered per Unit Land Area per Year by Pol.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14085"/>
+    <workbookView xWindow="260" yWindow="-21580" windowWidth="25680" windowHeight="18280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,16 @@
     <sheet name="Indonesia Data" sheetId="7" r:id="rId4"/>
     <sheet name="CSpULApYbP" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="acres_per_hectare">'Conversion Factors'!$A$2</definedName>
     <definedName name="CO2_to_C_mass">'Conversion Factors'!$A$7</definedName>
     <definedName name="grams_per_ton">'Conversion Factors'!$A$3</definedName>
+    <definedName name="hdafd">'[1]Conversion Factors'!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>CSpULApYbP CO2 Sequestered per Unit Land Area per Year by Policy</t>
   </si>
@@ -129,9 +133,6 @@
     <t>undated</t>
   </si>
   <si>
-    <t>This variable is not used for the improved forest management policy.</t>
-  </si>
-  <si>
     <t>For the Afforestation/Reforestation policy, this variable represents the amount of</t>
   </si>
   <si>
@@ -364,6 +365,12 @@
   </si>
   <si>
     <t>This variable uses Canadian data for Forest Set-Asides and Afforestation/Reforestation.</t>
+  </si>
+  <si>
+    <t>This variable is not used for the improved forest management policy, so the forest management value is left at 0</t>
+  </si>
+  <si>
+    <t>The Canadian model currently does not have sufficient data for the forest restoration policy lever so the forest restoration value is also left at 0</t>
   </si>
 </sst>
 </file>
@@ -430,7 +437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,12 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,14 +549,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="1"/>
@@ -581,6 +582,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Conversion Factors"/>
+      <sheetName val="Canada Calculations"/>
+      <sheetName val="Indonesia Data"/>
+      <sheetName val="Management and Restoration "/>
+      <sheetName val="CSpULApYbP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3">
+            <v>1000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,405 +900,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="110.28515625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17" t="s">
+      <c r="B3" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13"/>
       <c r="B7" s="6">
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13"/>
       <c r="B14" s="6">
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="16" customFormat="1"/>
+    <row r="21" spans="1:4" s="16" customFormat="1">
+      <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" s="16" customFormat="1">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" s="16" customFormat="1">
       <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="D26"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="B32" s="6">
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="6">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
+      <c r="B48" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="B49" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="50" spans="1:2">
+      <c r="B50" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="12" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1289,36 +1332,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12">
         <v>2.47105</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -1326,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1334,7 +1379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="7">
         <f>A5/A6</f>
         <v>3.6666666666666665</v>
@@ -1345,6 +1390,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1352,179 +1402,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>14545000</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1877000</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <f>A13-A14</f>
         <v>12668000</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <f>2052-2028+1</f>
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <f>A15/A16</f>
         <v>506720</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <f>A17*grams_per_ton</f>
         <v>506720000000</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>84210</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <f>A20*acres_per_hectare</f>
         <v>208087.12049999999</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="9">
         <f>A18/A21</f>
         <v>2435133.8938346258</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="8">
         <v>212.4</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="9">
         <f>A28*10^6</f>
         <v>212400000</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="9">
         <f>A29/acres_per_hectare</f>
         <v>85955363.104753047</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="9">
         <f>A30*CO2_to_C_mass</f>
         <v>315169664.71742785</v>
@@ -1533,12 +1583,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>40</v>
       </c>
@@ -1546,12 +1596,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="9">
         <f>A31/A34</f>
         <v>7879241.6179356966</v>
@@ -1562,7 +1612,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1572,67 +1627,67 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="86" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>9.1750000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
       </c>
       <c r="B6">
         <v>923.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <f>B6*B7/B8</f>
@@ -1656,15 +1711,17 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +1743,7 @@
       <c r="AH1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1752,7 @@
         <v>7879241.6179356966</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1738,19 +1795,19 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="19">
         <f>B2</f>
         <v>7879241.6179356966</v>
       </c>
@@ -1789,11 +1846,11 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="19">
         <f>('Indonesia Data'!B2+'Indonesia Data'!B9)*grams_per_ton/acres_per_hectare</f>
         <v>7253293.1344974805</v>
       </c>
@@ -1832,11 +1889,11 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="19">
         <v>0</v>
       </c>
       <c r="C7" s="3"/>
